--- a/assets/products.xlsx
+++ b/assets/products.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Projects\IdeaProjects\java-utils\src\main\java\com\fluckyeli\excel\useDemo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Projects\IdeaProjects\java-utils\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4008BF-8C07-49F3-BC84-FD87B490AE3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8ADFC52-306C-461C-B64B-AA64E159D4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>商品名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,6 +47,18 @@
   </si>
   <si>
     <t>机械键盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOOD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELECTRONICS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -372,44 +384,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
         <v>5999</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
         <v>299.5</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>500</v>
       </c>
     </row>
